--- a/biology/Botanique/Trichodiadema/Trichodiadema.xlsx
+++ b/biology/Botanique/Trichodiadema/Trichodiadema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Trichodiadema appartiennent à la famille des Aizoaceae.
 Le nom "Trichodiadema" vient du grec ancien "thrix" (=soie) et "diadema" (=couronne).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite succulente à tiges courtes avec des petits articles alternés allongés de 0,8 cm renflés et de couleur gris vert.
 À l'apex des articles naissent des petites soies qui rayonnent autour du centre et donnent l'aspect d'une aréole de cactus.
@@ -546,7 +560,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Exposition ensoleillée (mais éviter le soleil trop intense) et sol bien drainé.
 Multiplication par division des touffes, le bouturage est très aléatoire en raison des risques de pourriture.
@@ -578,7 +594,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Trichodiadema attonsum Schwantes
 Trichodiadema aureum L.Bolus
